--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1651.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1651.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206863705187016</v>
+        <v>2.876671075820923</v>
       </c>
       <c r="B1">
-        <v>3.633316545959231</v>
+        <v>3.021333932876587</v>
       </c>
       <c r="C1">
-        <v>3.080559492434917</v>
+        <v>2.737329959869385</v>
       </c>
       <c r="D1">
-        <v>2.332338972303619</v>
+        <v>3.071438789367676</v>
       </c>
       <c r="E1">
-        <v>1.293932650118272</v>
+        <v>2.599180698394775</v>
       </c>
     </row>
   </sheetData>
